--- a/Course-Schedule.xlsx
+++ b/Course-Schedule.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Software-University\COURSES\PHP-Web-Dev\Jan-2017\PHP-Fundamentals\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16452" windowHeight="5700"/>
   </bookViews>
   <sheets>
     <sheet name="Course Schedule" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="50">
   <si>
     <t>Number</t>
   </si>
@@ -168,12 +163,18 @@
   </si>
   <si>
     <t>Web Programming Introduction: HTTP, Form Submission Handling</t>
+  </si>
+  <si>
+    <t>14:00 - 20:00</t>
+  </si>
+  <si>
+    <t>Project Defense</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dddd"/>
   </numFmts>
@@ -577,7 +578,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -585,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK36"/>
+  <dimension ref="A1:AMK37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -925,7 +926,7 @@
         <v>42775</v>
       </c>
       <c r="F15" s="9">
-        <f t="shared" ref="F15:F36" si="2">WEEKDAY(E15)</f>
+        <f t="shared" ref="F15:F37" si="2">WEEKDAY(E15)</f>
         <v>5</v>
       </c>
       <c r="G15" s="8" t="s">
@@ -993,7 +994,7 @@
         <v>29</v>
       </c>
       <c r="E18" s="8">
-        <f t="shared" ref="E18:E35" si="3">E14+7</f>
+        <f t="shared" ref="E18:E34" si="3">E14+7</f>
         <v>42781</v>
       </c>
       <c r="F18" s="9">
@@ -1217,7 +1218,7 @@
         <v>42800</v>
       </c>
       <c r="F28" s="9">
-        <f t="shared" ref="F28:F35" si="6">WEEKDAY(E28)</f>
+        <f t="shared" ref="F28:F36" si="6">WEEKDAY(E28)</f>
         <v>2</v>
       </c>
       <c r="G28" s="10" t="s">
@@ -1367,35 +1368,56 @@
         <v>29</v>
       </c>
       <c r="E35" s="8">
-        <f t="shared" si="3"/>
-        <v>42810</v>
+        <f>E30+7</f>
+        <v>42809</v>
       </c>
       <c r="F35" s="9">
+        <f t="shared" ref="F35" si="7">WEEKDAY(E35)</f>
+        <v>4</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
+        <v>31</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="8">
+        <v>42812</v>
+      </c>
+      <c r="F36" s="9">
         <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5">
+        <v>7</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
         <v>32</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B37" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D37" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E37" s="8">
         <v>42813</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F37" s="9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="G37" s="10" t="s">
         <v>13</v>
       </c>
     </row>
